--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26680" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14680" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
   <si>
     <t>Profile</t>
   </si>
@@ -327,6 +327,24 @@
   </si>
   <si>
     <t>No. Marked Relevant</t>
+  </si>
+  <si>
+    <t>Popularity</t>
+  </si>
+  <si>
+    <t>No. Players</t>
+  </si>
+  <si>
+    <t>Play Time</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Categories Of Games</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -1311,13 +1329,29 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.799771986583248"/>
+          <c:y val="0.00495049504950495"/>
+          <c:w val="0.198717439398625"/>
+          <c:h val="0.189992398846184"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1934,8 +1968,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2220,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77:G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3410,6 +3444,106 @@
       <c r="K54" s="56"/>
       <c r="L54" s="56"/>
       <c r="M54" s="56"/>
+    </row>
+    <row r="76" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" t="s">
+        <v>105</v>
+      </c>
+      <c r="G76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>0.29608191096600001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>0.53072127397699997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>0.76536063698900003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>0.46927872602300003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>0.70391808903399999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>0.234639363011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84">
+        <v>0.53072127397699997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>0.76536063698900003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="48">
